--- a/lore.xlsx
+++ b/lore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws\TheSimsPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9107431-D61F-4594-A373-5AA33AFCAB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D39BC68-4B54-4689-8892-BBBFE660B7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,6 +222,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>110418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>46221</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B75F03D5-FA35-B30B-3AB2-1562F23F05CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6873240" y="2853618"/>
+          <a:ext cx="2316981" cy="2054105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -491,7 +535,7 @@
   <dimension ref="G4:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
